--- a/Entrega 4/Pruebas/Requisitos Funcionales.xlsx
+++ b/Entrega 4/Pruebas/Requisitos Funcionales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pepus Perez Flores\Documents\DAW2020\Entrega 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pepus Perez Flores\Documents\DAW2020\Entrega 4\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFF6DEB-4DE8-4164-B299-D89CF55BF12C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BF6E97-C33C-4EE7-9967-19BC72016BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="119">
   <si>
     <t>Responsable</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Fecha real de entrega</t>
   </si>
   <si>
-    <t>Tiempo ejecutado</t>
-  </si>
-  <si>
     <t>Planeación</t>
   </si>
   <si>
@@ -371,6 +368,18 @@
   </si>
   <si>
     <t>Recuperar contraseña</t>
+  </si>
+  <si>
+    <t>Visualizar Usuario</t>
+  </si>
+  <si>
+    <t>PruebasPostMan</t>
+  </si>
+  <si>
+    <t>Aceptado cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje </t>
   </si>
 </sst>
 </file>
@@ -382,7 +391,7 @@
     <numFmt numFmtId="165" formatCode="d\ mmmm"/>
     <numFmt numFmtId="166" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -430,12 +439,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +505,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -577,11 +605,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,9 +674,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -683,11 +710,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -700,21 +736,41 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -768,12 +824,12 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Priorizados-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
     <tableStyle name="Req-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -788,11 +844,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:O35" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:O36" headerRowCount="0">
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
-    <tableColumn id="15" xr3:uid="{4F6A3602-50B7-4EB2-8F09-A5BBAEAC6440}" name="Column15" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="15" xr3:uid="{4F6A3602-50B7-4EB2-8F09-A5BBAEAC6440}" name="Column15" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
@@ -1129,10 +1185,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1145,837 +1201,857 @@
     <col min="14" max="14" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63" t="s">
-        <v>9</v>
+      <c r="E1" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="64"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="64" t="s">
+        <v>117</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>81</v>
+      <c r="B3" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>80</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="8"/>
       <c r="N3" s="5"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>82</v>
+      <c r="B4" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>81</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="8"/>
       <c r="N4" s="5"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>83</v>
+      <c r="B5" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>82</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="8"/>
       <c r="N5" s="5"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
-      <c r="B6" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>84</v>
+      <c r="B6" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>83</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
       <c r="M6" s="8"/>
       <c r="N6" s="5"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>85</v>
+      <c r="B7" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>84</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
       <c r="M7" s="8"/>
       <c r="N7" s="5"/>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
-      <c r="B8" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>86</v>
+      <c r="B8" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>85</v>
       </c>
       <c r="D8" s="5">
         <v>6</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="8"/>
       <c r="N8" s="5"/>
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="47" t="s">
-        <v>92</v>
+      <c r="B9" s="46" t="s">
+        <v>91</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5">
         <v>7</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
       <c r="M9" s="8"/>
       <c r="N9" s="5"/>
       <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
-      <c r="B10" s="50" t="s">
-        <v>92</v>
+      <c r="B10" s="49" t="s">
+        <v>91</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
       <c r="M10" s="8"/>
       <c r="N10" s="25"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="60" t="s">
         <v>92</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>93</v>
       </c>
       <c r="D11" s="5">
         <v>9</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="28"/>
       <c r="N11" s="5"/>
       <c r="O11" s="32"/>
     </row>
     <row r="12" spans="1:15" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>99</v>
+      <c r="B12" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="28"/>
       <c r="N12" s="5"/>
       <c r="O12" s="32"/>
     </row>
     <row r="13" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>95</v>
+      <c r="B13" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>94</v>
       </c>
       <c r="D13" s="5">
         <v>10</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="28"/>
       <c r="N13" s="5"/>
       <c r="O13" s="32"/>
     </row>
     <row r="14" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>94</v>
+      <c r="B14" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>93</v>
       </c>
       <c r="D14" s="5">
         <v>11</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="28"/>
       <c r="N14" s="5"/>
       <c r="O14" s="32"/>
     </row>
     <row r="15" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>96</v>
+      <c r="B15" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>95</v>
       </c>
       <c r="D15" s="5">
         <v>12</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="28"/>
       <c r="N15" s="5"/>
       <c r="O15" s="32"/>
     </row>
     <row r="16" spans="1:15" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>100</v>
+      <c r="B16" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>99</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="28"/>
       <c r="N16" s="5"/>
       <c r="O16" s="32"/>
     </row>
     <row r="17" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>95</v>
+      <c r="B17" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>94</v>
       </c>
       <c r="D17" s="5">
         <v>13</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="28"/>
       <c r="N17" s="5"/>
       <c r="O17" s="32"/>
     </row>
     <row r="18" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>94</v>
+      <c r="B18" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>93</v>
       </c>
       <c r="D18" s="5">
         <v>14</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="28"/>
       <c r="N18" s="5"/>
       <c r="O18" s="32"/>
     </row>
     <row r="19" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>97</v>
+      <c r="B19" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>96</v>
       </c>
       <c r="D19" s="5">
         <v>15</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="8"/>
       <c r="N19" s="5"/>
       <c r="O19" s="32"/>
     </row>
     <row r="20" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>98</v>
+      <c r="B20" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>97</v>
       </c>
       <c r="D20" s="5">
         <v>16</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="8"/>
       <c r="N20" s="5"/>
       <c r="O20" s="32"/>
     </row>
     <row r="21" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>101</v>
+      <c r="B21" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>100</v>
       </c>
       <c r="D21" s="5">
         <v>17</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="8"/>
       <c r="N21" s="5"/>
       <c r="O21" s="32"/>
     </row>
-    <row r="22" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>103</v>
+      <c r="B22" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>102</v>
       </c>
       <c r="D22" s="5">
         <v>18</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="8"/>
       <c r="N22" s="5"/>
       <c r="O22" s="32"/>
     </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="60" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="5">
-        <v>19</v>
-      </c>
+      <c r="B23" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="42"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="5"/>
       <c r="O23" s="32"/>
     </row>
-    <row r="24" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-      <c r="B24" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>104</v>
+      <c r="B24" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>101</v>
       </c>
       <c r="D24" s="5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="44"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="41"/>
       <c r="N24" s="5"/>
       <c r="O24" s="32"/>
     </row>
-    <row r="25" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
-      <c r="B25" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>105</v>
+      <c r="B25" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>103</v>
       </c>
       <c r="D25" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="45"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="5"/>
       <c r="O25" s="32"/>
     </row>
-    <row r="26" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
-      <c r="B26" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>106</v>
+      <c r="B26" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>104</v>
       </c>
       <c r="D26" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="44"/>
       <c r="O26" s="32"/>
     </row>
-    <row r="27" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>107</v>
+      <c r="B27" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>105</v>
       </c>
       <c r="D27" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="44"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="5"/>
       <c r="O27" s="32"/>
     </row>
-    <row r="28" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="46">
-        <v>25</v>
+      <c r="B28" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="5">
+        <v>24</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="44"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="43"/>
       <c r="N28" s="5"/>
       <c r="O28" s="32"/>
     </row>
     <row r="29" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="5">
-        <v>26</v>
+      <c r="A29" s="3"/>
+      <c r="B29" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="45">
+        <v>25</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="44"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="43"/>
       <c r="N29" s="5"/>
       <c r="O29" s="32"/>
     </row>
     <row r="30" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>110</v>
+      <c r="A30" s="39"/>
+      <c r="B30" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>108</v>
       </c>
       <c r="D30" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="44"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="5"/>
       <c r="O30" s="32"/>
     </row>
     <row r="31" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="73" t="s">
-        <v>111</v>
+      <c r="B31" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>109</v>
       </c>
       <c r="D31" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="42"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="43"/>
       <c r="N31" s="5"/>
       <c r="O31" s="32"/>
     </row>
     <row r="32" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="73" t="s">
-        <v>112</v>
+      <c r="B32" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>110</v>
       </c>
       <c r="D32" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="42"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="41"/>
       <c r="N32" s="5"/>
       <c r="O32" s="32"/>
     </row>
-    <row r="33" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="74" t="s">
-        <v>113</v>
+      <c r="B33" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>111</v>
       </c>
       <c r="D33" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="5"/>
       <c r="O33" s="32"/>
     </row>
     <row r="34" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="47"/>
-      <c r="B34" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="74" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="5">
+        <v>30</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="32"/>
+    </row>
+    <row r="35" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="46"/>
+      <c r="B35" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="47">
+        <v>31</v>
+      </c>
+      <c r="E35" s="47"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="48">
-        <v>31</v>
-      </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-    </row>
-    <row r="35" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-    </row>
-    <row r="36" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
     </row>
     <row r="37" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
     </row>
     <row r="38" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
     </row>
     <row r="39" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+    </row>
+    <row r="40" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2000,61 +2076,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63" t="s">
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5">
@@ -2064,7 +2140,7 @@
         <v>43516</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2076,10 +2152,10 @@
     </row>
     <row r="4" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5">
@@ -2089,7 +2165,7 @@
         <v>43516</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -2101,10 +2177,10 @@
     </row>
     <row r="5" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5">
@@ -2114,7 +2190,7 @@
         <v>43516</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2126,10 +2202,10 @@
     </row>
     <row r="6" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
@@ -2137,7 +2213,7 @@
         <v>43533</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -2149,10 +2225,10 @@
     </row>
     <row r="7" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
@@ -2160,7 +2236,7 @@
         <v>43533</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="15"/>
@@ -2172,10 +2248,10 @@
     </row>
     <row r="8" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
@@ -2183,7 +2259,7 @@
         <v>43533</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2195,10 +2271,10 @@
     </row>
     <row r="9" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5"/>
@@ -2206,7 +2282,7 @@
         <v>43533</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -2218,10 +2294,10 @@
     </row>
     <row r="10" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="20">
@@ -2231,7 +2307,7 @@
         <v>43534</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
@@ -2243,10 +2319,10 @@
     </row>
     <row r="11" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="25">
@@ -2256,7 +2332,7 @@
         <v>43543</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="30"/>
@@ -2266,10 +2342,10 @@
     </row>
     <row r="12" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="20">
@@ -2279,7 +2355,7 @@
         <v>43554</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="30"/>
@@ -2294,7 +2370,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="8"/>
       <c r="F13" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2304,10 +2380,10 @@
     </row>
     <row r="14" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5">
@@ -2317,7 +2393,7 @@
         <v>43539</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2327,10 +2403,10 @@
     </row>
     <row r="15" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5">
@@ -2340,7 +2416,7 @@
         <v>43544</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2350,10 +2426,10 @@
     </row>
     <row r="16" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5">
@@ -2363,7 +2439,7 @@
         <v>43544</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2373,10 +2449,10 @@
     </row>
     <row r="17" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5">
@@ -2386,7 +2462,7 @@
         <v>43544</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2396,10 +2472,10 @@
     </row>
     <row r="18" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5">
@@ -2409,7 +2485,7 @@
         <v>43544</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2419,10 +2495,10 @@
     </row>
     <row r="19" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>45</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5">
@@ -2432,7 +2508,7 @@
         <v>43534</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2442,10 +2518,10 @@
     </row>
     <row r="20" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5">
@@ -2455,7 +2531,7 @@
         <v>43534</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="4"/>
@@ -2465,10 +2541,10 @@
     </row>
     <row r="21" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5">
@@ -2478,7 +2554,7 @@
         <v>43534</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2488,10 +2564,10 @@
     </row>
     <row r="22" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5">
@@ -2501,7 +2577,7 @@
         <v>43534</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -2511,10 +2587,10 @@
     </row>
     <row r="23" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5">
@@ -2524,7 +2600,7 @@
         <v>43534</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2534,10 +2610,10 @@
     </row>
     <row r="24" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5">
@@ -2547,7 +2623,7 @@
         <v>43565</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2557,19 +2633,19 @@
     </row>
     <row r="25" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="E25" s="8">
         <v>43575</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2579,10 +2655,10 @@
     </row>
     <row r="26" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5">
@@ -2592,7 +2668,7 @@
         <v>43575</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2602,10 +2678,10 @@
     </row>
     <row r="27" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5">
@@ -2615,7 +2691,7 @@
         <v>43580</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2625,10 +2701,10 @@
     </row>
     <row r="28" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5">
@@ -2638,7 +2714,7 @@
         <v>43585</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2706,52 +2782,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="72" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="67" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="71"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="66"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -2796,10 +2872,10 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="21"/>
@@ -2814,15 +2890,15 @@
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
       <c r="O4" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>23</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="33"/>
@@ -2837,15 +2913,15 @@
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
       <c r="O5" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>26</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="36"/>
@@ -2860,15 +2936,15 @@
       <c r="M6" s="36"/>
       <c r="N6" s="36"/>
       <c r="O6" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -2882,16 +2958,16 @@
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="39" t="s">
-        <v>38</v>
+      <c r="O7" s="38" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -2905,16 +2981,16 @@
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
-      <c r="O8" s="41" t="s">
-        <v>38</v>
+      <c r="O8" s="40" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -2928,16 +3004,16 @@
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="39" t="s">
-        <v>38</v>
+      <c r="O9" s="38" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -2951,16 +3027,16 @@
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
-      <c r="O10" s="41" t="s">
-        <v>44</v>
+      <c r="O10" s="40" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -2974,16 +3050,16 @@
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="39" t="s">
-        <v>44</v>
+      <c r="O11" s="38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -2997,85 +3073,85 @@
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
-      <c r="O12" s="41" t="s">
-        <v>44</v>
+      <c r="O12" s="40" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="49" t="s">
         <v>44</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="41" t="s">
-        <v>57</v>
+        <v>21</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="40" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="39" t="s">
-        <v>57</v>
+        <v>21</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -3089,16 +3165,16 @@
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
-      <c r="O16" s="41" t="s">
-        <v>57</v>
+      <c r="O16" s="40" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -3112,16 +3188,16 @@
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
-      <c r="O17" s="39" t="s">
-        <v>57</v>
+      <c r="O17" s="38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -3135,16 +3211,16 @@
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
-      <c r="O18" s="41" t="s">
-        <v>57</v>
+      <c r="O18" s="40" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -3158,16 +3234,16 @@
       <c r="L19" s="33"/>
       <c r="M19" s="33"/>
       <c r="N19" s="33"/>
-      <c r="O19" s="39" t="s">
-        <v>57</v>
+      <c r="O19" s="38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
@@ -3181,39 +3257,39 @@
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
-      <c r="O20" s="41" t="s">
-        <v>58</v>
+      <c r="O20" s="40" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="39" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -3224,42 +3300,42 @@
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="56"/>
+      <c r="L22" s="55"/>
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
-      <c r="O22" s="41" t="s">
-        <v>60</v>
+      <c r="O22" s="40" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="39" t="s">
-        <v>60</v>
+        <v>21</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="38" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -3271,33 +3347,33 @@
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
-      <c r="M24" s="56"/>
+      <c r="M24" s="55"/>
       <c r="N24" s="21"/>
-      <c r="O24" s="41" t="s">
-        <v>61</v>
+      <c r="O24" s="40" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="39" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="38" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3332,101 +3408,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="D1" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="57" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="B2" s="57">
+        <v>43508</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="58">
-        <v>43508</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="40" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="B3" s="57">
+        <v>43534</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="58">
-        <v>43534</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="40" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="B4" s="57">
+        <v>43542</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="58">
-        <v>43542</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="40" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="B5" s="57">
+        <v>43551</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="58">
-        <v>43551</v>
-      </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="40" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="B6" s="57">
+        <v>43544</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="58">
-        <v>43544</v>
-      </c>
-      <c r="C6" s="40" t="s">
+      <c r="D6" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="59" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="B7" s="57">
+        <v>43559</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>79</v>
-      </c>
-      <c r="B7" s="58">
-        <v>43559</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Entrega 4/Pruebas/Requisitos Funcionales.xlsx
+++ b/Entrega 4/Pruebas/Requisitos Funcionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pepus Perez Flores\Documents\DAW2020\Entrega 4\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BF6E97-C33C-4EE7-9967-19BC72016BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8002F0-8683-4588-A203-146953F36345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,22 @@
     <sheet name="Calendario" sheetId="3" r:id="rId3"/>
     <sheet name="Bitacora" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="122">
   <si>
     <t>Responsable</t>
   </si>
@@ -373,23 +383,31 @@
     <t>Visualizar Usuario</t>
   </si>
   <si>
-    <t>PruebasPostMan</t>
-  </si>
-  <si>
     <t>Aceptado cliente</t>
   </si>
   <si>
     <t xml:space="preserve">Porcentaje </t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>PruebasPostMan (backend)</t>
+  </si>
+  <si>
+    <t>Pruebas FrontEnd</t>
+  </si>
+  <si>
+    <t>AvanceTotal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d&quot; de &quot;mmmm"/>
     <numFmt numFmtId="165" formatCode="d\ mmmm"/>
-    <numFmt numFmtId="166" formatCode="d\.m"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -518,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -604,20 +622,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -632,9 +711,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -662,9 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -677,19 +750,7 @@
     <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -711,7 +772,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -736,23 +797,84 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="31">
     <dxf>
       <font>
         <b val="0"/>
@@ -770,6 +892,316 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -788,6 +1220,374 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -824,12 +1624,12 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Priorizados-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
     </tableStyle>
     <tableStyle name="Req-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -844,23 +1644,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:O36" headerRowCount="0">
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
-    <tableColumn id="15" xr3:uid="{4F6A3602-50B7-4EB2-8F09-A5BBAEAC6440}" name="Column15" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:M37" headerRowCount="0" totalsRowCount="1" headerRowDxfId="15" totalsRowDxfId="14">
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="26" totalsRowDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{4F6A3602-50B7-4EB2-8F09-A5BBAEAC6440}" name="Column15" dataDxfId="25" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="24" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="23" totalsRowDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" dataDxfId="22" totalsRowDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataDxfId="21" totalsRowDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" dataDxfId="20" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" dataDxfId="13" totalsRowDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" dataDxfId="19" totalsRowDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11" dataDxfId="18" totalsRowDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" dataDxfId="17" totalsRowDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13" totalsRowLabel="AvanceTotal" totalsRowDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="0" totalsRowCellStyle="Percent">
+      <totalsRowFormula>AVERAGE(Table_1[Column13])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Priorizados-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1185,873 +1985,917 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.453125" style="9"/>
-    <col min="3" max="3" width="34.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="9" max="9" width="19.81640625" customWidth="1"/>
-    <col min="14" max="14" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" style="52" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.26953125" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" style="52" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="64" t="s">
+      <c r="L1" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="75"/>
+    </row>
+    <row r="2" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="75"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="71">
+        <v>1</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="94">
+        <v>0.6</v>
+      </c>
+      <c r="M3" s="84"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="71">
+        <v>2</v>
+      </c>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="94">
+        <v>0.6</v>
+      </c>
+      <c r="M4" s="84"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="68"/>
+      <c r="B5" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="71">
+        <v>3</v>
+      </c>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="94">
+        <v>0.6</v>
+      </c>
+      <c r="M5" s="84"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="71">
+        <v>4</v>
+      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="79" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="1" t="s">
+      <c r="L6" s="94">
+        <v>1</v>
+      </c>
+      <c r="M6" s="84"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="71">
+        <v>5</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="94">
+        <v>1</v>
+      </c>
+      <c r="M7" s="84"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="71">
+        <v>6</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="94">
+        <v>1</v>
+      </c>
+      <c r="M8" s="84"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="71">
+        <v>7</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="94">
+        <v>1</v>
+      </c>
+      <c r="M9" s="84"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="77"/>
+      <c r="B10" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="71">
+        <v>8</v>
+      </c>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="95">
+        <v>1</v>
+      </c>
+      <c r="M10" s="84"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="68"/>
+      <c r="B11" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="71">
+        <v>9</v>
+      </c>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="83"/>
+    </row>
+    <row r="12" spans="1:13" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="68"/>
+      <c r="B12" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="71"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="M12" s="83"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="68"/>
+      <c r="B13" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="71">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="83"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="68"/>
+      <c r="B14" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="71">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="83"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="68"/>
+      <c r="B15" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="71">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="M15" s="83"/>
+    </row>
+    <row r="16" spans="1:13" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="68"/>
+      <c r="B16" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="83"/>
+    </row>
+    <row r="17" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="68"/>
+      <c r="B17" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="71">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="E17" s="73"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="83"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="68"/>
+      <c r="B18" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="71">
         <v>14</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="E18" s="73"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="M18" s="83"/>
+    </row>
+    <row r="19" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="68"/>
+      <c r="B19" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="71">
+        <v>15</v>
+      </c>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="M19" s="83"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="68"/>
+      <c r="B20" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="71">
+        <v>16</v>
+      </c>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="M20" s="83"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="68"/>
+      <c r="B21" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="71">
+        <v>17</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="M21" s="83"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="68"/>
+      <c r="B22" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="71">
+        <v>18</v>
+      </c>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="94">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="10"/>
-    </row>
-    <row r="7" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="5">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="46" t="s">
+      <c r="M22" s="83"/>
+    </row>
+    <row r="23" spans="1:13" s="51" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="68"/>
+      <c r="B23" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="5">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="49" t="s">
+      <c r="C23" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="71"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="94">
+        <v>1</v>
+      </c>
+      <c r="M23" s="83"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="68"/>
+      <c r="B24" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="5">
-        <v>8</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="49" t="s">
+      <c r="C24" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="71">
+        <v>19</v>
+      </c>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="94">
+        <v>1</v>
+      </c>
+      <c r="M24" s="83"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="68"/>
+      <c r="B25" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="5">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="32"/>
-    </row>
-    <row r="12" spans="1:15" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="49" t="s">
+      <c r="C25" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="71">
+        <v>21</v>
+      </c>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="94">
+        <v>1</v>
+      </c>
+      <c r="M25" s="83"/>
+    </row>
+    <row r="26" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="68"/>
+      <c r="B26" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="32"/>
-    </row>
-    <row r="13" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="49" t="s">
+      <c r="C26" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="71">
+        <v>22</v>
+      </c>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="94">
+        <v>1</v>
+      </c>
+      <c r="M26" s="83"/>
+    </row>
+    <row r="27" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="68"/>
+      <c r="B27" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="5">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="32"/>
-    </row>
-    <row r="14" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="49" t="s">
+      <c r="C27" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="71">
+        <v>23</v>
+      </c>
+      <c r="E27" s="73"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="94">
+        <v>1</v>
+      </c>
+      <c r="M27" s="83"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="68"/>
+      <c r="B28" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="5">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="32"/>
-    </row>
-    <row r="15" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="49" t="s">
+      <c r="C28" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="71">
+        <v>24</v>
+      </c>
+      <c r="E28" s="73"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="M28" s="83"/>
+    </row>
+    <row r="29" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="68"/>
+      <c r="B29" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="5">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="32"/>
-    </row>
-    <row r="16" spans="1:15" s="9" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="49" t="s">
+      <c r="C29" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="82">
+        <v>25</v>
+      </c>
+      <c r="E29" s="73"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="M29" s="83"/>
+    </row>
+    <row r="30" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="69"/>
+      <c r="B30" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="32"/>
-    </row>
-    <row r="17" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="49" t="s">
+      <c r="C30" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="71">
+        <v>26</v>
+      </c>
+      <c r="E30" s="73"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="M30" s="83"/>
+    </row>
+    <row r="31" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="68"/>
+      <c r="B31" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="5">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="32"/>
-    </row>
-    <row r="18" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="49" t="s">
+      <c r="C31" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="71">
+        <v>27</v>
+      </c>
+      <c r="E31" s="73"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="M31" s="83"/>
+    </row>
+    <row r="32" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="68"/>
+      <c r="B32" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="5">
-        <v>14</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="32"/>
-    </row>
-    <row r="19" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="49" t="s">
+      <c r="C32" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="71">
+        <v>28</v>
+      </c>
+      <c r="E32" s="73"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="83"/>
+    </row>
+    <row r="33" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="68"/>
+      <c r="B33" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="5">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="32"/>
-    </row>
-    <row r="20" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="49" t="s">
+      <c r="C33" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="71">
+        <v>29</v>
+      </c>
+      <c r="E33" s="73"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="83"/>
+    </row>
+    <row r="34" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="68"/>
+      <c r="B34" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="5">
-        <v>16</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="32"/>
-    </row>
-    <row r="21" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="49" t="s">
+      <c r="C34" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="71">
+        <v>30</v>
+      </c>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="L34" s="96">
+        <v>1</v>
+      </c>
+      <c r="M34" s="83"/>
+    </row>
+    <row r="35" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="69"/>
+      <c r="B35" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="5">
-        <v>17</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="32"/>
-    </row>
-    <row r="22" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="49" t="s">
+      <c r="C35" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="82">
+        <v>31</v>
+      </c>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="L35" s="97">
+        <v>1</v>
+      </c>
+      <c r="M35" s="83"/>
+    </row>
+    <row r="36" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="75"/>
+      <c r="B36" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="5">
-        <v>18</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="32"/>
-    </row>
-    <row r="23" spans="1:15" s="60" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="32"/>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="5">
-        <v>19</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="32"/>
-    </row>
-    <row r="25" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="5">
-        <v>21</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="32"/>
-    </row>
-    <row r="26" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="5">
-        <v>22</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="32"/>
-    </row>
-    <row r="27" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="5">
-        <v>23</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="32"/>
-    </row>
-    <row r="28" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="5">
-        <v>24</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="32"/>
-    </row>
-    <row r="29" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="45">
-        <v>25</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="32"/>
-    </row>
-    <row r="30" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="5">
-        <v>26</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="32"/>
-    </row>
-    <row r="31" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="5">
-        <v>27</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="32"/>
-    </row>
-    <row r="32" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="5">
-        <v>28</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="32"/>
-    </row>
-    <row r="33" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="5">
-        <v>29</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="32"/>
-    </row>
-    <row r="34" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="5">
-        <v>30</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="32"/>
-    </row>
-    <row r="35" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="46"/>
-      <c r="B35" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="47">
-        <v>31</v>
-      </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-    </row>
-    <row r="37" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-    </row>
-    <row r="38" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-    </row>
-    <row r="39" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-    </row>
-    <row r="40" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
+      <c r="D36" s="82">
+        <v>32</v>
+      </c>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="L36" s="98">
+        <v>1</v>
+      </c>
+      <c r="M36" s="75"/>
+    </row>
+    <row r="37" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="90"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="M37" s="99">
+        <f>AVERAGE(Table_1[Column13])</f>
+        <v>0.5406249999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D38" s="39"/>
+      <c r="I38" s="39"/>
+    </row>
+    <row r="39" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D39" s="39"/>
+      <c r="I39" s="39"/>
+    </row>
+    <row r="40" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D40" s="39"/>
+      <c r="I40" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2076,41 +2920,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2123,630 +2967,630 @@
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="63"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>43516</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7">
         <v>43532</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5">
+      <c r="C4" s="2"/>
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>43516</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7">
         <v>43532</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5">
+      <c r="C5" s="2"/>
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>43516</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7">
         <v>43532</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8">
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="7">
         <v>43533</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7">
         <v>43532</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8">
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7">
         <v>43533</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8">
+      <c r="G7" s="6"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7">
         <v>43532</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8">
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7">
         <v>43533</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7">
         <v>43532</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8">
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7">
         <v>43533</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7">
         <v>43532</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20">
+      <c r="C10" s="16"/>
+      <c r="D10" s="18">
         <v>1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>43534</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="8">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="7">
         <v>43532</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="25">
+      <c r="C11" s="16"/>
+      <c r="D11" s="23">
         <v>2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>43543</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20">
+      <c r="C12" s="16"/>
+      <c r="D12" s="18">
         <v>2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>43554</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="12" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="32"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5">
+      <c r="C14" s="2"/>
+      <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>43539</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="32"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5">
+      <c r="C15" s="2"/>
+      <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>43544</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="32"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5">
+      <c r="C16" s="2"/>
+      <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>43544</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="32"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5">
+      <c r="C17" s="2"/>
+      <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>43544</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="32"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5">
+      <c r="C18" s="2"/>
+      <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>43544</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="32"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="29"/>
     </row>
     <row r="19" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5">
+      <c r="C19" s="2"/>
+      <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>43534</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="32"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5">
+      <c r="C20" s="2"/>
+      <c r="D20" s="4">
         <v>1</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>43534</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="32"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="29"/>
     </row>
     <row r="21" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5">
+      <c r="C21" s="2"/>
+      <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>43534</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="32"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="29"/>
     </row>
     <row r="22" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5">
+      <c r="C22" s="2"/>
+      <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>43534</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="32"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="29"/>
     </row>
     <row r="23" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5">
+      <c r="C23" s="2"/>
+      <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>43534</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="32"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5">
+      <c r="C24" s="2"/>
+      <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>43565</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="32"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>43575</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="32"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="29"/>
     </row>
     <row r="26" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="5">
+      <c r="C26" s="2"/>
+      <c r="D26" s="4">
         <v>4</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>43575</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="32"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5">
+      <c r="C27" s="3"/>
+      <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>43580</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="32"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5">
+      <c r="C28" s="3"/>
+      <c r="D28" s="4">
         <v>2</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>43585</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="32"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="32"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="29"/>
     </row>
     <row r="30" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2782,597 +3626,597 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="68" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="68" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="67" t="s">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="58" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="71" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="66"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12">
         <v>4</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>5</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>2</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <v>3</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>4</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="12">
         <v>5</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="12">
         <v>1</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="12">
         <v>2</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="12">
         <v>3</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="12">
         <v>4</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="12">
         <v>5</v>
       </c>
-      <c r="O3" s="16"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="27" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="38" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="40" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="37" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="38" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="40" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="37" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="38" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="40" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="37" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="38" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="40" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="38" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="40" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="38" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="40" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="38" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="40" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="38" t="s">
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="35" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="40" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="38" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="40" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="37" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="38" t="s">
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="35" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3408,100 +4252,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="47" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="48">
         <v>43508</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="36" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="48">
         <v>43534</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="36" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="48">
         <v>43542</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="36" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="48">
         <v>43551</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="48">
         <v>43544</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="49" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="48">
         <v>43559</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="50" t="s">
         <v>79</v>
       </c>
     </row>

--- a/Entrega 4/Pruebas/Requisitos Funcionales.xlsx
+++ b/Entrega 4/Pruebas/Requisitos Funcionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pepus Perez Flores\Documents\DAW2020\Entrega 4\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8002F0-8683-4588-A203-146953F36345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C4958F-9BE9-4F20-A25B-29FDCF4301E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="122">
   <si>
     <t>Responsable</t>
   </si>
@@ -389,9 +389,6 @@
     <t xml:space="preserve">Porcentaje </t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t>PruebasPostMan (backend)</t>
   </si>
   <si>
@@ -399,15 +396,17 @@
   </si>
   <si>
     <t>AvanceTotal</t>
+  </si>
+  <si>
+    <t>Porcentaje Aceptado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot; de &quot;mmmm"/>
-    <numFmt numFmtId="165" formatCode="d\ mmmm"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -773,45 +772,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -823,29 +788,12 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -866,6 +814,57 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -874,7 +873,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="32">
     <dxf>
       <font>
         <b val="0"/>
@@ -1262,6 +1261,88 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1281,128 +1362,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1581,6 +1540,42 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1624,12 +1619,12 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Priorizados-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
-      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
     <tableStyle name="Req-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="28"/>
-      <tableStyleElement type="secondRowStripe" dxfId="27"/>
+      <tableStyleElement type="firstRowStripe" dxfId="29"/>
+      <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1644,20 +1639,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:M37" headerRowCount="0" totalsRowCount="1" headerRowDxfId="15" totalsRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:M37" headerRowCount="0" totalsRowCount="1" headerRowDxfId="27" totalsRowDxfId="26">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="26" totalsRowDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{4F6A3602-50B7-4EB2-8F09-A5BBAEAC6440}" name="Column15" dataDxfId="25" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="24" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="23" totalsRowDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" dataDxfId="22" totalsRowDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataDxfId="21" totalsRowDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" dataDxfId="20" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" dataDxfId="13" totalsRowDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" dataDxfId="19" totalsRowDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11" dataDxfId="18" totalsRowDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" dataDxfId="17" totalsRowDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13" totalsRowLabel="AvanceTotal" totalsRowDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="25" totalsRowDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{4F6A3602-50B7-4EB2-8F09-A5BBAEAC6440}" name="Column15" dataDxfId="24" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="23" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="22" totalsRowDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" dataDxfId="21" totalsRowDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataDxfId="20" totalsRowDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" dataDxfId="19" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" dataDxfId="18" totalsRowDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" dataDxfId="17" totalsRowDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11" totalsRowLabel="Porcentaje Aceptado" dataDxfId="15" totalsRowDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="2">
+      <totalsRowFormula>AVERAGE(Table_1[Column12])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13" totalsRowLabel="AvanceTotal" dataDxfId="14" totalsRowDxfId="1" dataCellStyle="Percent"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="0" totalsRowCellStyle="Percent">
       <totalsRowFormula>AVERAGE(Table_1[Column13])</totalsRowFormula>
     </tableColumn>
@@ -1987,8 +1984,8 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:L10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2009,863 +2006,920 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="J1" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="59"/>
+    </row>
+    <row r="2" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="56">
+        <v>1</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="96">
+        <v>0</v>
+      </c>
+      <c r="L3" s="71">
+        <v>0.6</v>
+      </c>
+      <c r="M3" s="65"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="56">
+        <v>2</v>
+      </c>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="96">
+        <v>0</v>
+      </c>
+      <c r="L4" s="71">
+        <v>0.6</v>
+      </c>
+      <c r="M4" s="65"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="56">
+        <v>3</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="97">
+        <v>0</v>
+      </c>
+      <c r="L5" s="71">
+        <v>0.6</v>
+      </c>
+      <c r="M5" s="65"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="56">
+        <v>4</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="96">
+        <v>1</v>
+      </c>
+      <c r="L6" s="71">
+        <v>1</v>
+      </c>
+      <c r="M6" s="65"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="53"/>
+      <c r="B7" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="56">
+        <v>5</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="96">
+        <v>1</v>
+      </c>
+      <c r="L7" s="71">
+        <v>1</v>
+      </c>
+      <c r="M7" s="65"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="56">
+        <v>6</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="96">
+        <v>1</v>
+      </c>
+      <c r="L8" s="71">
+        <v>1</v>
+      </c>
+      <c r="M8" s="65"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="56">
+        <v>7</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="96">
+        <v>1</v>
+      </c>
+      <c r="L9" s="71">
+        <v>1</v>
+      </c>
+      <c r="M9" s="65"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
+      <c r="B10" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="56">
+        <v>8</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="96">
+        <v>1</v>
+      </c>
+      <c r="L10" s="72">
+        <v>1</v>
+      </c>
+      <c r="M10" s="65"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="53"/>
+      <c r="B11" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="56">
+        <v>9</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="96">
+        <v>0</v>
+      </c>
+      <c r="L11" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="64"/>
+    </row>
+    <row r="12" spans="1:13" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="53"/>
+      <c r="B12" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="96">
+        <v>0</v>
+      </c>
+      <c r="L12" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M12" s="64"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="53"/>
+      <c r="B13" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="56">
+        <v>10</v>
+      </c>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="96">
+        <v>0</v>
+      </c>
+      <c r="L13" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="64"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="53"/>
+      <c r="B14" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="56">
+        <v>11</v>
+      </c>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="96">
+        <v>0</v>
+      </c>
+      <c r="L14" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="64"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="53"/>
+      <c r="B15" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="56">
+        <v>12</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="96">
+        <v>0</v>
+      </c>
+      <c r="L15" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M15" s="64"/>
+    </row>
+    <row r="16" spans="1:13" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="53"/>
+      <c r="B16" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="96">
+        <v>0</v>
+      </c>
+      <c r="L16" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="64"/>
+    </row>
+    <row r="17" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="53"/>
+      <c r="B17" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="56">
+        <v>13</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="96">
+        <v>0</v>
+      </c>
+      <c r="L17" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="64"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="53"/>
+      <c r="B18" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="56">
+        <v>14</v>
+      </c>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="96">
+        <v>0</v>
+      </c>
+      <c r="L18" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M18" s="64"/>
+    </row>
+    <row r="19" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="53"/>
+      <c r="B19" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="56">
+        <v>15</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="97">
+        <v>0</v>
+      </c>
+      <c r="L19" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M19" s="64"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="53"/>
+      <c r="B20" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="56">
+        <v>16</v>
+      </c>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="97">
+        <v>0</v>
+      </c>
+      <c r="L20" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M20" s="64"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="53"/>
+      <c r="B21" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="56">
+        <v>17</v>
+      </c>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="97">
+        <v>0</v>
+      </c>
+      <c r="L21" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M21" s="64"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="53"/>
+      <c r="B22" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="56">
+        <v>18</v>
+      </c>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="97">
+        <v>0</v>
+      </c>
+      <c r="L22" s="71">
+        <v>1</v>
+      </c>
+      <c r="M22" s="64"/>
+    </row>
+    <row r="23" spans="1:13" s="51" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="53"/>
+      <c r="B23" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="97">
+        <v>0</v>
+      </c>
+      <c r="L23" s="71">
+        <v>1</v>
+      </c>
+      <c r="M23" s="64"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="53"/>
+      <c r="B24" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="56">
+        <v>19</v>
+      </c>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="98">
+        <v>0</v>
+      </c>
+      <c r="L24" s="71">
+        <v>1</v>
+      </c>
+      <c r="M24" s="64"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="53"/>
+      <c r="B25" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="56">
+        <v>21</v>
+      </c>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="98">
+        <v>0</v>
+      </c>
+      <c r="L25" s="71">
+        <v>1</v>
+      </c>
+      <c r="M25" s="64"/>
+    </row>
+    <row r="26" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="53"/>
+      <c r="B26" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="56">
+        <v>22</v>
+      </c>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="98">
+        <v>0</v>
+      </c>
+      <c r="L26" s="71">
+        <v>1</v>
+      </c>
+      <c r="M26" s="64"/>
+    </row>
+    <row r="27" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="53"/>
+      <c r="B27" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="56">
+        <v>23</v>
+      </c>
+      <c r="E27" s="57"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="98">
+        <v>0</v>
+      </c>
+      <c r="L27" s="71">
+        <v>1</v>
+      </c>
+      <c r="M27" s="64"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="53"/>
+      <c r="B28" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="56">
+        <v>24</v>
+      </c>
+      <c r="E28" s="57"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="98">
+        <v>0</v>
+      </c>
+      <c r="L28" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M28" s="64"/>
+    </row>
+    <row r="29" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="53"/>
+      <c r="B29" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="63">
+        <v>25</v>
+      </c>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="98">
+        <v>0</v>
+      </c>
+      <c r="L29" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M29" s="64"/>
+    </row>
+    <row r="30" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="54"/>
+      <c r="B30" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="56">
+        <v>26</v>
+      </c>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="98">
+        <v>0</v>
+      </c>
+      <c r="L30" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M30" s="64"/>
+    </row>
+    <row r="31" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="53"/>
+      <c r="B31" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="56">
+        <v>27</v>
+      </c>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="98">
+        <v>0</v>
+      </c>
+      <c r="L31" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M31" s="64"/>
+    </row>
+    <row r="32" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="53"/>
+      <c r="B32" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="56">
+        <v>28</v>
+      </c>
+      <c r="E32" s="57"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="98">
+        <v>0</v>
+      </c>
+      <c r="L32" s="71"/>
+      <c r="M32" s="64"/>
+    </row>
+    <row r="33" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="53"/>
+      <c r="B33" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="56">
+        <v>29</v>
+      </c>
+      <c r="E33" s="57"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="98">
+        <v>0</v>
+      </c>
+      <c r="L33" s="71"/>
+      <c r="M33" s="64"/>
+    </row>
+    <row r="34" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="53"/>
+      <c r="B34" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="56">
+        <v>30</v>
+      </c>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="98">
+        <v>1</v>
+      </c>
+      <c r="L34" s="73">
+        <v>1</v>
+      </c>
+      <c r="M34" s="64"/>
+    </row>
+    <row r="35" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="54"/>
+      <c r="B35" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="63">
+        <v>31</v>
+      </c>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="98">
+        <v>1</v>
+      </c>
+      <c r="L35" s="74">
+        <v>1</v>
+      </c>
+      <c r="M35" s="64"/>
+    </row>
+    <row r="36" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="59"/>
+      <c r="B36" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="63">
+        <v>32</v>
+      </c>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="99">
+        <v>1</v>
+      </c>
+      <c r="L36" s="75">
+        <v>1</v>
+      </c>
+      <c r="M36" s="59"/>
+    </row>
+    <row r="37" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" s="69">
+        <f>AVERAGE(Table_1[Column12])</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="L37" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="75"/>
-    </row>
-    <row r="2" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="75"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="71">
-        <v>1</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="94">
-        <v>0.6</v>
-      </c>
-      <c r="M3" s="84"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="71">
-        <v>2</v>
-      </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="94">
-        <v>0.6</v>
-      </c>
-      <c r="M4" s="84"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="71">
-        <v>3</v>
-      </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="94">
-        <v>0.6</v>
-      </c>
-      <c r="M5" s="84"/>
-    </row>
-    <row r="6" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="71">
-        <v>4</v>
-      </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="94">
-        <v>1</v>
-      </c>
-      <c r="M6" s="84"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="71">
-        <v>5</v>
-      </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="94">
-        <v>1</v>
-      </c>
-      <c r="M7" s="84"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="71">
-        <v>6</v>
-      </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="94">
-        <v>1</v>
-      </c>
-      <c r="M8" s="84"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="71">
-        <v>7</v>
-      </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="L9" s="94">
-        <v>1</v>
-      </c>
-      <c r="M9" s="84"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="77"/>
-      <c r="B10" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="71">
-        <v>8</v>
-      </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="95">
-        <v>1</v>
-      </c>
-      <c r="M10" s="84"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="68"/>
-      <c r="B11" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="71">
-        <v>9</v>
-      </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="M11" s="83"/>
-    </row>
-    <row r="12" spans="1:13" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="68"/>
-      <c r="B12" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="M12" s="83"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="68"/>
-      <c r="B13" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="71">
-        <v>10</v>
-      </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="M13" s="83"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
-      <c r="B14" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="71">
-        <v>11</v>
-      </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="M14" s="83"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="68"/>
-      <c r="B15" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="71">
-        <v>12</v>
-      </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="M15" s="83"/>
-    </row>
-    <row r="16" spans="1:13" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="68"/>
-      <c r="B16" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="M16" s="83"/>
-    </row>
-    <row r="17" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="68"/>
-      <c r="B17" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="71">
-        <v>13</v>
-      </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="M17" s="83"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="68"/>
-      <c r="B18" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="71">
-        <v>14</v>
-      </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="M18" s="83"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="68"/>
-      <c r="B19" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="71">
-        <v>15</v>
-      </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="M19" s="83"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="68"/>
-      <c r="B20" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="71">
-        <v>16</v>
-      </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="M20" s="83"/>
-    </row>
-    <row r="21" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="68"/>
-      <c r="B21" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="71">
-        <v>17</v>
-      </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="M21" s="83"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="68"/>
-      <c r="B22" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="71">
-        <v>18</v>
-      </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="94">
-        <v>1</v>
-      </c>
-      <c r="M22" s="83"/>
-    </row>
-    <row r="23" spans="1:13" s="51" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="68"/>
-      <c r="B23" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="94">
-        <v>1</v>
-      </c>
-      <c r="M23" s="83"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="68"/>
-      <c r="B24" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="71">
-        <v>19</v>
-      </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="94">
-        <v>1</v>
-      </c>
-      <c r="M24" s="83"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="68"/>
-      <c r="B25" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="71">
-        <v>21</v>
-      </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="94">
-        <v>1</v>
-      </c>
-      <c r="M25" s="83"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="68"/>
-      <c r="B26" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="71">
-        <v>22</v>
-      </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="94">
-        <v>1</v>
-      </c>
-      <c r="M26" s="83"/>
-    </row>
-    <row r="27" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="68"/>
-      <c r="B27" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="71">
-        <v>23</v>
-      </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="94">
-        <v>1</v>
-      </c>
-      <c r="M27" s="83"/>
-    </row>
-    <row r="28" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="68"/>
-      <c r="B28" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="71">
-        <v>24</v>
-      </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="M28" s="83"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="68"/>
-      <c r="B29" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="82">
-        <v>25</v>
-      </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="M29" s="83"/>
-    </row>
-    <row r="30" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="69"/>
-      <c r="B30" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="71">
-        <v>26</v>
-      </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="M30" s="83"/>
-    </row>
-    <row r="31" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="68"/>
-      <c r="B31" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="71">
-        <v>27</v>
-      </c>
-      <c r="E31" s="73"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="M31" s="83"/>
-    </row>
-    <row r="32" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="68"/>
-      <c r="B32" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="71">
-        <v>28</v>
-      </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="83"/>
-    </row>
-    <row r="33" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="68"/>
-      <c r="B33" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="71">
-        <v>29</v>
-      </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="83"/>
-    </row>
-    <row r="34" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="68"/>
-      <c r="B34" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="71">
-        <v>30</v>
-      </c>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="L34" s="96">
-        <v>1</v>
-      </c>
-      <c r="M34" s="83"/>
-    </row>
-    <row r="35" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="69"/>
-      <c r="B35" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="82">
-        <v>31</v>
-      </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="L35" s="97">
-        <v>1</v>
-      </c>
-      <c r="M35" s="83"/>
-    </row>
-    <row r="36" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="75"/>
-      <c r="B36" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="82">
-        <v>32</v>
-      </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="L36" s="98">
-        <v>1</v>
-      </c>
-      <c r="M36" s="75"/>
-    </row>
-    <row r="37" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="M37" s="99">
+      <c r="M37" s="76">
         <f>AVERAGE(Table_1[Column13])</f>
         <v>0.5406249999999998</v>
       </c>
@@ -2920,41 +2974,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55" t="s">
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="84" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2967,7 +3021,7 @@
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="54"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3626,52 +3680,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="59" t="s">
+      <c r="D1" s="91"/>
+      <c r="E1" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="59" t="s">
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="58" t="s">
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="89" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="62" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="57"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="88"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
